--- a/data/trans_camb/P2403-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2403-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 1,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 1,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>879,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1186,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>900,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1630,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>115,73; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>208,0; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,95; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>275,71; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 2,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 2,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 2,52</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>642,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>425,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>919,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>854,13%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>255,05; 1682,81</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>133,3; 1254,93</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>359,32; 2543,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>345,55; 2515,93</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 2,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 4,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 1,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 3,65</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>189,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>519,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>412,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>466,4%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-45,0; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64,34; 2868,81</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,09; 703,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>113,48; 1479,0</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 2,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 2,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 2,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 1,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 2,28</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>598,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>561,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1114,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2555,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>674,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>858,24%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>272,7; 1283,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>280,1; 1220,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>190,78; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>569,16; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>364,66; 1309,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>457,05; 1638,6</t>
         </is>
       </c>
     </row>
